--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1926.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1926.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.592172536568209</v>
+        <v>0.962230384349823</v>
       </c>
       <c r="B1">
-        <v>3.883260363068768</v>
+        <v>0.7586323618888855</v>
       </c>
       <c r="C1">
-        <v>2.095709116448205</v>
+        <v>2.636927843093872</v>
       </c>
       <c r="D1">
-        <v>1.49870009332439</v>
+        <v>3.510997295379639</v>
       </c>
       <c r="E1">
-        <v>1.287327366792583</v>
+        <v>1.398565649986267</v>
       </c>
     </row>
   </sheetData>
